--- a/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_llama_wikidata_dbpedia_results_comparison.xlsx
+++ b/QALD9-Plus-testing/CoT-entity-aligned/CoT-wikidata-dbpedia/CoT_llama_wikidata_dbpedia_results_comparison.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -498,17 +498,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>When was Olof Palme shot?</t>
+          <t>How many films did Leonardo DiCaprio star in?</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['1986-02-28']</t>
+          <t>['33']</t>
         </is>
       </c>
       <c r="D4" t="b">
@@ -518,17 +518,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Which movies star both Liz Taylor and Richard Burton?</t>
+          <t>When was Olof Palme shot?</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
+          <t>['1986-02-28']</t>
         </is>
       </c>
       <c r="D5" t="b">
@@ -538,17 +538,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>How much did the Lego Movie cost?</t>
+          <t>Which movies star both Liz Taylor and Richard Burton?</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['60.0']</t>
+          <t>['http://dbpedia.org/resource/Boom!_(film)', 'http://dbpedia.org/resource/Divorce_His,_Divorce_Hers', 'http://dbpedia.org/resource/Doctor_Faustus_(1967_film)', 'http://dbpedia.org/resource/Hammersmith_Is_Out', 'http://dbpedia.org/resource/The_Comedians_(1967_film)', 'http://dbpedia.org/resource/The_Sandpiper', 'http://dbpedia.org/resource/The_Taming_of_the_Shrew_(1967_film)', 'http://dbpedia.org/resource/The_V.I.P.s_(film)', 'http://dbpedia.org/resource/Under_Milk_Wood_(1972_film)', "http://dbpedia.org/resource/Who's_Afraid_of_Virginia_Woolf%3F_(film)"]</t>
         </is>
       </c>
       <c r="D6" t="b">
@@ -568,51 +568,51 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>["http://dbpedia.org/resource/Mother's_Day_(2016_film)", 'http://dbpedia.org/resource/Pretty_Woman', 'http://dbpedia.org/resource/Runaway_Bride_(film)', "http://dbpedia.org/resource/Valentine's_Day_(2010_film)"]</t>
+          <t>['http://dbpedia.org/resource/Love_You_Baba']</t>
         </is>
       </c>
       <c r="D7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>In which year was Rachel Stevens born?</t>
+          <t>What is the most frequent cause of death?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>['1978']</t>
+          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
         </is>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>What is the most frequent cause of death?</t>
+          <t>What is the highest mountain in Italy?</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Assassination_of_Wissam_al-Hassan']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Execution_by_hanging']</t>
+          <t>['http://dbpedia.org/resource/Mont_Blanc']</t>
         </is>
       </c>
       <c r="D9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -638,17 +638,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Give me the currency of China.</t>
+          <t>What is Donald Trump's main business?</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Renminbi']</t>
+          <t>['http://dbpedia.org/resource/GoTrump.com', 'http://dbpedia.org/resource/The_Trump_Organization', 'http://dbpedia.org/resource/Trump_Model_Management']</t>
         </is>
       </c>
       <c r="D11" t="b">
@@ -658,17 +658,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>When was the death of Shakespeare?</t>
+          <t>How many people live in Eurasia?</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>['1616-04-23']</t>
+          <t>['5360351985']</t>
         </is>
       </c>
       <c r="D12" t="b">
@@ -678,17 +678,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Which rockets were launched from Baikonur?</t>
+          <t>Who is the author of the interpretation of dreams?</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
+          <t>['http://dbpedia.org/resource/Sigmund_Freud']</t>
         </is>
       </c>
       <c r="D13" t="b">
@@ -698,37 +698,37 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Give me all companies in the advertising industry.</t>
+          <t>When was John Adams born?</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['198']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/140_Proof', 'http://dbpedia.org/resource/495_Communications', 'http://dbpedia.org/resource/72andSunny', 'http://dbpedia.org/resource/Abbott_Mead_Vickers_BBDO', 'http://dbpedia.org/resource/AdDuplex', 'http://dbpedia.org/resource/AdForum', 'http://dbpedia.org/resource/AdGreetz', 'http://dbpedia.org/resource/AdKeeper', 'http://dbpedia.org/resource/AdPack_USA', 'http://dbpedia.org/resource/All_By_Students_Notebooks', 'http://dbpedia.org/resource/Amalgamated_Advertising', 'http://dbpedia.org/resource/Anomaly_(advertising_agency)', 'http://dbpedia.org/resource/Argentonia', 'http://dbpedia.org/resource/AudienceProject', 'http://dbpedia.org/resource/B-Reel', 'http://dbpedia.org/resource/Bang_(company)', 'http://dbpedia.org/resource/Barker_(advertising_agency)', 'http://dbpedia.org/resource/Barkley_Inc.', 'http://dbpedia.org/resource/Bastion_Collective', 'http://dbpedia.org/resource/BBB_National_Programs', 'http://dbpedia.org/resource/Beasley_Broadcast_Group', 'http://dbpedia.org/resource/Berk_Communications', 'http://dbpedia.org/resource/Blue_Zoo_Animation_Studio', 'http://dbpedia.org/resource/BlueFocus_Communication_Group', 'http://dbpedia.org/resource/Boase_Massimi_Pollitt', 'http://dbpedia.org/resource/Boats_Group', 'http://dbpedia.org/resource/Bookmark_Content_and_Communications', 'http://dbpedia.org/resource/Brand_Keys', 'http://dbpedia.org/resource/Bromley_Originate_Change', 'http://dbpedia.org/resource/Butler,_Shine,_Stern_&amp;_Partners', 'http://dbpedia.org/resource/BYU_Adlab', 'http://dbpedia.org/resource/Cabe_Rawit_Marketing_Communications', 'http://dbpedia.org/resource/Camp+King', 'http://dbpedia.org/resource/Campaigns_&amp;_Grey', 'http://dbpedia.org/resource/Carbone_Smolan_Agency', "http://dbpedia.org/resource/Children's_Advertising_Review_Unit", 'http://dbpedia.org/resource/CKS_Group', 'http://dbpedia.org/resource/Classified_Ventures', 'http://dbpedia.org/resource/Clever_Bins', 'http://dbpedia.org/resource/Collett_Dickenson_Pearce', 'http://dbpedia.org/resource/Commonground/MGS', 'http://dbpedia.org/resource/Compass_Media_Networks', 'http://dbpedia.org/resource/Cordiant_Communications_Group', 'http://dbpedia.org/resource/Creature_(company)', 'http://dbpedia.org/resource/Crispin_Porter_+_Bogusky', 'http://dbpedia.org/resource/Dancer_Fitzgerald_Sample', 'http://dbpedia.org/resource/Dancing_Diablo', 'http://dbpedia.org/resource/DCF_Advertising', 'http://dbpedia.org/resource/Doe-Anderson_Inc.', 'http://dbpedia.org/resource/Dominion_Enterprises', 'http://dbpedia.org/resource/Doner_Company', 'http://dbpedia.org/resource/Door_Number_3', 'http://dbpedia.org/resource/Droga5', 'http://dbpedia.org/resource/DRUM_Agency', 'http://dbpedia.org/resource/Due_North_Communications', 'http://dbpedia.org/resource/Earthsky_Pictures', 'http://dbpedia.org/resource/Emakina_Group', 'http://dbpedia.org/resource/Empower_(company)', 'http://dbpedia.org/resource/Eniro', 'http://dbpedia.org/resource/Equativ', 'http://dbpedia.org/resource/Essence_Global', 'http://dbpedia.org/resource/Euro_RSCG_London', 'http://dbpedia.org/resource/FCB_(advertising_agency)', 'http://dbpedia.org/resource/Flock_Edit', 'http://dbpedia.org/resource/Flurry_(company)', 'http://dbpedia.org/resource/Focus_Media', 'http://dbpedia.org/resource/Forum_Communications_Company', 'http://dbpedia.org/resource/Fred_&amp;_Farid_Group', 'http://dbpedia.org/resource/Gigil', 'http://dbpedia.org/resource/Goodby,_Silverstein_&amp;_Partners', 'http://dbpedia.org/resource/Google', 'http://dbpedia.org/resource/Gotham,_Inc.', 'http://dbpedia.org/resource/Grey_Global_Group', 'http://dbpedia.org/resource/Griffin-Bacal_Advertising', 'http://dbpedia.org/resource/GSD&amp;M', 'http://dbpedia.org/resource/GTB_(advertising_agency)', 'http://dbpedia.org/resource/GumCo', 'http://dbpedia.org/resource/GWI_(company)', 'http://dbpedia.org/resource/Hogarth_Worldwide', 'http://dbpedia.org/resource/I_Wear_Your_Shirt', 'http://dbpedia.org/resource/ID_(public_relations)', 'http://dbpedia.org/resource/Initiative_(agency)', 'http://dbpedia.org/resource/Invite_Media', 'http://dbpedia.org/resource/Jackson_Radio_Works', 'http://dbpedia.org/resource/Janimation', 'http://dbpedia.org/resource/Johannes_Leonardo', 'http://dbpedia.org/resource/Johnstone_and_Cushing', 'http://dbpedia.org/resource/Karmarama_(advertising_agency)', 'http://dbpedia.org/resource/Ketchum_Inc.', 'http://dbpedia.org/resource/La_comunidad_(agency)', 'http://dbpedia.org/resource/Lamar_Advertising_Company', 'http://dbpedia.org/resource/LatinWorks', 'http://dbpedia.org/resource/Laughlin_Constable', 'http://dbpedia.org/resource/Le_Book', 'http://dbpedia.org/resource/Level_Studios', 'http://dbpedia.org/resource/Logical_Position', 'http://dbpedia.org/resource/Lopez_Negrete_Communications', 'http://dbpedia.org/resource/Lowe_Roche', 'http://dbpedia.org/resource/LPM_Comunicação', 'http://dbpedia.org/resource/M&amp;C_Saatchi', 'http://dbpedia.org/resource/Magnite_Inc', 'http://dbpedia.org/resource/Makovsky_(agency)', 'http://dbpedia.org/resource/MARC_USA', 'http://dbpedia.org/resource/Marfeel', 'http://dbpedia.org/resource/Marmoset_(music_agency)', 'http://dbpedia.org/resource/Martin_Williams_Advertising', 'http://dbpedia.org/resource/Mason_&amp;_Associates', 'http://dbpedia.org/resource/Massive_Incorporated', 'http://dbpedia.org/resource/Matari_Advertising', 'http://dbpedia.org/resource/Matomy_Media', 'http://dbpedia.org/resource/Maximum_Effort', 'http://dbpedia.org/resource/Maxus_(media_agency)', 'http://dbpedia.org/resource/Mc_Group', 'http://dbpedia.org/resource/McCann_(company)', 'http://dbpedia.org/resource/McGarrah_Jessee', 'http://dbpedia.org/resource/McKinney_(advertising_agency)', 'http://dbpedia.org/resource/MDB_Communications', 'http://dbpedia.org/resource/Mediahub', 'http://dbpedia.org/resource/Mekanism', 'http://dbpedia.org/resource/Merchlar', 'http://dbpedia.org/resource/MGSCOMM', 'http://dbpedia.org/resource/Mindshare_(firm)', 'http://dbpedia.org/resource/Mithun_Agency', 'http://dbpedia.org/resource/MMA_Creative', 'http://dbpedia.org/resource/Modernista!', 'http://dbpedia.org/resource/Moxie_Sozo', 'http://dbpedia.org/resource/MullenLowe_U.S.', 'http://dbpedia.org/resource/N._W._Ayer_&amp;_Son', 'http://dbpedia.org/resource/Narcity_Media', 'http://dbpedia.org/resource/Nativex', 'http://dbpedia.org/resource/NBG_Radio_Network', 'http://dbpedia.org/resource/Noble_(company)', 'http://dbpedia.org/resource/Nova_M_Radio', 'http://dbpedia.org/resource/Ogilvy_(agency)', 'http://dbpedia.org/resource/OMD_Worldwide', 'http://dbpedia.org/resource/OOh!media', 'http://dbpedia.org/resource/OwnLocal', 'http://dbpedia.org/resource/PeakBiety_Branding_+_Advertising', 'http://dbpedia.org/resource/Porterhouse_Media', 'http://dbpedia.org/resource/Premiere_Networks', 'http://dbpedia.org/resource/Promotus_Advertising', 'http://dbpedia.org/resource/Proximity_Worldwide', 'http://dbpedia.org/resource/Purple_Strategies', 'http://dbpedia.org/resource/Quarry_(company)', 'http://dbpedia.org/resource/R/GA', 'http://dbpedia.org/resource/R%5CWest', 'http://dbpedia.org/resource/Radio_Express', 'http://dbpedia.org/resource/Razor_Creative', 'http://dbpedia.org/resource/Red_Zebra_Broadcasting', 'http://dbpedia.org/resource/Richards/Carlberg', 'http://dbpedia.org/resource/Rothco', 'http://dbpedia.org/resource/Scholz_&amp;_Friends', 'http://dbpedia.org/resource/Screenvision', 'http://dbpedia.org/resource/Seiter_&amp;_Miller_Advertising', 'http://dbpedia.org/resource/Sensis_(company)', 'http://dbpedia.org/resource/Serviceplan', 'http://dbpedia.org/resource/Siren_interactive', 'http://dbpedia.org/resource/Sirved', 'http://dbpedia.org/resource/Smith_(advertising_agency)', 'http://dbpedia.org/resource/Soccer_United_Marketing', 'http://dbpedia.org/resource/Stein_IAS', 'http://dbpedia.org/resource/Stevens_Reed_Curcio_&amp;_Potholm', 'http://dbpedia.org/resource/Stinkdigital', 'http://dbpedia.org/resource/Storeboard_Media', 'http://dbpedia.org/resource/Strata_(company)', 'http://dbpedia.org/resource/Stuart_Advertising_Agency', 'http://dbpedia.org/resource/Sullivan_&amp;_Company', 'http://dbpedia.org/resource/T3_(company)', 'http://dbpedia.org/resource/TBWA_Worldwide', 'http://dbpedia.org/resource/TBWA%5CChiat%5CDay', 'http://dbpedia.org/resource/Telmar_(company)', 'http://dbpedia.org/resource/The_Ant_Farm', 'http://dbpedia.org/resource/The_Barbarian_Group', 'http://dbpedia.org/resource/The_Kluger_Agency', 'http://dbpedia.org/resource/The_Marketing_Group', 'http://dbpedia.org/resource/The_North_Alliance', 'http://dbpedia.org/resource/The_San_Jose_Group', 'http://dbpedia.org/resource/TheSwizzle.com', 'http://dbpedia.org/resource/Titan_(transit_advertising_company)', 'http://dbpedia.org/resource/TM_Advertising', 'http://dbpedia.org/resource/Tocquigny', 'http://dbpedia.org/resource/Tombras_Group', 'http://dbpedia.org/resource/Topham_Guerin', 'http://dbpedia.org/resource/Toth_Brand_Imaging', 'http://dbpedia.org/resource/Traction_(agency)', 'http://dbpedia.org/resource/Tremor_International', 'http://dbpedia.org/resource/Tribal_Worldwide', 'http://dbpedia.org/resource/UNIT9', 'http://dbpedia.org/resource/United_Group', 'http://dbpedia.org/resource/UWG_Inc.', 'http://dbpedia.org/resource/Will_Vinton__Productions__1', 'http://dbpedia.org/resource/Work_Labs', 'http://dbpedia.org/resource/WPP-Scangroup', 'http://dbpedia.org/resource/Wunderman_Thompson', 'http://dbpedia.org/resource/Wunderman', 'http://dbpedia.org/resource/XM_Gravity_Indonesia', 'http://dbpedia.org/resource/YachtWorld', 'http://dbpedia.org/resource/ZERO_VFX']</t>
+          <t>['1735-10-30']</t>
         </is>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Which university did Angela Merkel attend?</t>
+          <t>Give me the currency of China.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/German_Academy_of_Sciences_at_Berlin', 'http://dbpedia.org/resource/Leipzig_University']</t>
+          <t>['http://dbpedia.org/resource/Renminbi']</t>
         </is>
       </c>
       <c r="D15" t="b">
@@ -738,17 +738,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Where was JFK assassinated?</t>
+          <t>When was the death of Shakespeare?</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dallas']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Dallas']</t>
+          <t>['1616-04-23']</t>
         </is>
       </c>
       <c r="D16" t="b">
@@ -758,17 +758,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Which people were born in Heraklion?</t>
+          <t>Which rockets were launched from Baikonur?</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+          <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Anastasios_Triantafyllou_(footballer)', 'http://dbpedia.org/resource/Anastasios_Triantafyllou', 'http://dbpedia.org/resource/Andreas_Bouchalakis', 'http://dbpedia.org/resource/Andreas_Musalus', 'http://dbpedia.org/resource/Antonis_Alexakis', 'http://dbpedia.org/resource/Antonis_Bourselis', 'http://dbpedia.org/resource/Archbishop_Makarios_of_Australia', 'http://dbpedia.org/resource/Beata_Kitsikis', 'http://dbpedia.org/resource/Charalampos_Charalampakis', 'http://dbpedia.org/resource/Charalampos_Damianakis', 'http://dbpedia.org/resource/Christoforos_Liontakis', 'http://dbpedia.org/resource/Christoforos_Papakaliatis', 'http://dbpedia.org/resource/Christos_Belevonis', 'http://dbpedia.org/resource/Christos_Kozyrakis', 'http://dbpedia.org/resource/Christos_Saloustros', 'http://dbpedia.org/resource/Chrysovalantis_Kozoronis', 'http://dbpedia.org/resource/Cyril_Lucaris', 'http://dbpedia.org/resource/Dimitrios_Kiliaras', 'http://dbpedia.org/resource/Dimitrios_Papadopoulos_(footballer,_born_1950)__Dimitrios_Papadopoulos__1', 'http://dbpedia.org/resource/Dimitrios_Raptakis', 'http://dbpedia.org/resource/Edison_Kola', 'http://dbpedia.org/resource/Eleftherios_Goulielmakis', 'http://dbpedia.org/resource/Emmanuel_Skordilis', 'http://dbpedia.org/resource/Fotis_Kafatos', 'http://dbpedia.org/resource/Franghias_Kavertzas', 'http://dbpedia.org/resource/Georges_Panayotis', 'http://dbpedia.org/resource/Georgios_Kalaitzakis', 'http://dbpedia.org/resource/Georgios_Kastrofylakas', 'http://dbpedia.org/resource/Georgios_Klontzas', 'http://dbpedia.org/resource/Georgios_Kortezas', 'http://dbpedia.org/resource/Georgios_Manousakis', 'http://dbpedia.org/resource/Georgios_Samaras', 'http://dbpedia.org/resource/Georgios_Sarris', 'http://dbpedia.org/resource/Georgios_Sournakis', 'http://dbpedia.org/resource/Georgios_Vlastos', 'http://dbpedia.org/resource/Gianna_Angelopoulos-Daskalaki', 'http://dbpedia.org/resource/Giannis_Boutsakis', 'http://dbpedia.org/resource/Giannis_Dermitzakis', 'http://dbpedia.org/resource/Giannis_Domatas', 'http://dbpedia.org/resource/Giannis_Iatroudis', 'http://dbpedia.org/resource/Giannis_Koutantos', 'http://dbpedia.org/resource/Giannis_Vardinogiannis', 'http://dbpedia.org/resource/Giorgos_Giakoumakis__Giorgos_Giakoumakis__1', 'http://dbpedia.org/resource/Giorgos_Grammatikakis', 'http://dbpedia.org/resource/Giorgos_Petrakis', 'http://dbpedia.org/resource/Ieremias_Palladas', 'http://dbpedia.org/resource/Ilias_Koutsoupias', 'http://dbpedia.org/resource/Ioannis_Apakas', 'http://dbpedia.org/resource/Ioannis_Ikonomou', 'http://dbpedia.org/resource/Ioannis_Pagomenos', 'http://dbpedia.org/resource/Iosif_Daskalakis', 'http://dbpedia.org/resource/Irini_Vasiliou', 'http://dbpedia.org/resource/Joseph_Sifakis', 'http://dbpedia.org/resource/Konstantinos_Gouvis', 'http://dbpedia.org/resource/Konstantinos_Provydakis', 'http://dbpedia.org/resource/Konstanty_Korniakt', 'http://dbpedia.org/resource/Kostas_Chaniotakis', 'http://dbpedia.org/resource/Lampros_Kefaloukos', 'http://dbpedia.org/resource/Lefteris_Gialousis', 'http://dbpedia.org/resource/Lena_Platonos', 'http://dbpedia.org/resource/Leonidas_Kyrkos', 'http://dbpedia.org/resource/Lili_Zografou', 'http://dbpedia.org/resource/Manolis_Bolakis', 'http://dbpedia.org/resource/Manolis_Hatzidakis', 'http://dbpedia.org/resource/Manolis_Moniakis', 'http://dbpedia.org/resource/Manolis_Papamattheakis', 'http://dbpedia.org/resource/Manolis_Patemtzis', 'http://dbpedia.org/resource/Manolis_Roubakis', 'http://dbpedia.org/resource/Manolis_Roussakis', 'http://dbpedia.org/resource/Manolis_Rovithis', 'http://dbpedia.org/resource/Manolis_Saliakas', 'http://dbpedia.org/resource/Manolis_Stefanoudakis', 'http://dbpedia.org/resource/Manuel_Fokas', 'http://dbpedia.org/resource/Markos_Bathas', 'http://dbpedia.org/resource/Meletius_I_Pegas', 'http://dbpedia.org/resource/Michael_Fokas', 'http://dbpedia.org/resource/Michael_Katehakis', 'http://dbpedia.org/resource/Michail_Fragoulakis', 'http://dbpedia.org/resource/Michalis_Sifakis', 'http://dbpedia.org/resource/Michalis_Tzirakis', 'http://dbpedia.org/resource/Minas_Chalkiadakis', 'http://dbpedia.org/resource/Minas_Pitsos', 'http://dbpedia.org/resource/Myron_Michailidis', 'http://dbpedia.org/resource/Nadia_Valavani', 'http://dbpedia.org/resource/Nektarios_Azizi', 'http://dbpedia.org/resource/Nektarios_Tavernarakis', 'http://dbpedia.org/resource/Nicholas_Kalliakis', 'http://dbpedia.org/resource/Nikolaos_Gripiotis', 'http://dbpedia.org/resource/Nikolaos_Ritzos', 'http://dbpedia.org/resource/Nikonas_Spiliotakis', 'http://dbpedia.org/resource/Nikos_Androulakis', 'http://dbpedia.org/resource/Nikos_Karelis', 'http://dbpedia.org/resource/Nikos_Kazantzakis', 'http://dbpedia.org/resource/Nikos_Kousidis', 'http://dbpedia.org/resource/Nikos_Machlas', 'http://dbpedia.org/resource/Nikos_Marinakis', 'http://dbpedia.org/resource/Nikos_Psimopoulos', 'http://dbpedia.org/resource/Nikos_Vrettos', 'http://dbpedia.org/resource/Ntinos_Konstantakis', 'http://dbpedia.org/resource/Odysseas_Elytis', 'http://dbpedia.org/resource/Oresti_Kacurri', 'http://dbpedia.org/resource/Panagiotis_Kalaitzakis', 'http://dbpedia.org/resource/Panagiotis_Petras', 'http://dbpedia.org/resource/Petros_Giakoumakis', 'http://dbpedia.org/resource/Petros_Lambardos', 'http://dbpedia.org/resource/Petros_Marinakis', 'http://dbpedia.org/resource/Şadi_Çalık', 'http://dbpedia.org/resource/Sapfo_Notara', 'http://dbpedia.org/resource/Spyros_Danellis', 'http://dbpedia.org/resource/Stavros_Arnaoutakis', 'http://dbpedia.org/resource/Stavros_Labrakis', 'http://dbpedia.org/resource/Theocharis_Silvestros', 'http://dbpedia.org/resource/Theophanes_the_Cretan', 'http://dbpedia.org/resource/Thomas_Bathas', 'http://dbpedia.org/resource/Vangelis_Nikokyrakis', 'http://dbpedia.org/resource/Vasilios_Babis', 'http://dbpedia.org/resource/Vasilios_Vogiatzis', 'http://dbpedia.org/resource/Victor_(iconographer)', 'http://dbpedia.org/resource/Zacharias_Kavousakis']</t>
+          <t>['http://dbpedia.org/resource/Dnepr_(rocket)', 'http://dbpedia.org/resource/Energia_(rocket)', 'http://dbpedia.org/resource/Irtysh_(rocket)', 'http://dbpedia.org/resource/Kosmos_3_(rocket)', 'http://dbpedia.org/resource/Kosmos-1', 'http://dbpedia.org/resource/Molniya_(rocket)', 'http://dbpedia.org/resource/Molniya-M', 'http://dbpedia.org/resource/N1_(rocket)', 'http://dbpedia.org/resource/Polyot_(rocket)__Polyot_11A59__1', 'http://dbpedia.org/resource/Proton_(rocket_family)', 'http://dbpedia.org/resource/Proton-K', 'http://dbpedia.org/resource/Proton-M', 'http://dbpedia.org/resource/R-7A_Semyorka', 'http://dbpedia.org/resource/Rokot', 'http://dbpedia.org/resource/Soyuz_(rocket_family)', 'http://dbpedia.org/resource/Soyuz_(rocket)', 'http://dbpedia.org/resource/Soyuz-2', 'http://dbpedia.org/resource/Soyuz-FG', 'http://dbpedia.org/resource/Soyuz-L', 'http://dbpedia.org/resource/Soyuz-U', 'http://dbpedia.org/resource/Soyuz-U2', 'http://dbpedia.org/resource/Soyuz/Vostok', 'http://dbpedia.org/resource/Sputnik_(rocket)__Sputnik_727__1', 'http://dbpedia.org/resource/Strela_(rocket)', 'http://dbpedia.org/resource/Tsyklon-2', 'http://dbpedia.org/resource/Tsyklon', 'http://dbpedia.org/resource/Voskhod_(rocket)', 'http://dbpedia.org/resource/Vostok_(rocket_family)', 'http://dbpedia.org/resource/Vostok-2_(rocket)', 'http://dbpedia.org/resource/Vostok-2M', 'http://dbpedia.org/resource/Vostok-K', 'http://dbpedia.org/resource/Vostok-L', 'http://dbpedia.org/resource/Zenit_(rocket_family)', 'http://dbpedia.org/resource/Zenit-2', 'http://dbpedia.org/resource/Zenit-2M', 'http://dbpedia.org/resource/Zenit-3F', 'http://dbpedia.org/resource/Zenit-3SLB']</t>
         </is>
       </c>
       <c r="D17" t="b">
@@ -778,17 +778,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>How many children did Benjamin Franklin have?</t>
+          <t>Where was JFK assassinated?</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>['3']</t>
+          <t>['http://dbpedia.org/resource/Dallas']</t>
         </is>
       </c>
       <c r="D18" t="b">
@@ -798,17 +798,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>In which country is Mecca located?</t>
+          <t>What is the population of Cairo?</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
+          <t>['10100166']</t>
         </is>
       </c>
       <c r="D19" t="b">
@@ -818,17 +818,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>What kind of music did Lou Reed play?</t>
+          <t>How many children did Benjamin Franklin have?</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
+          <t>['3']</t>
         </is>
       </c>
       <c r="D20" t="b">
@@ -838,37 +838,37 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Give me the birth place of Frank Sinatra.</t>
+          <t>In which country is Mecca located?</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>['http://dbpedia.org/resource/Saudi_Arabia']</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
+          <t>["http://dbpedia.org/resource/'Asir_Province", "http://dbpedia.org/resource/'Asir_Region", "http://dbpedia.org/resource/'s_Hertogenbosch", "http://dbpedia.org/resource/'s-Heerenberg", "http://dbpedia.org/resource/'s-Hertogenbosch", 'http://dbpedia.org/resource/1_Treasury_Place', 'http://dbpedia.org/resource/1_William_Street,_Brisbane', 'http://dbpedia.org/resource/10_Hudson_Yards', 'http://dbpedia.org/resource/10_Peel_Centre_Drive', 'http://dbpedia.org/resource/10_Toronto_Street', 'http://dbpedia.org/resource/10_Universal_City_Plaza', 'http://dbpedia.org/resource/10_Upper_Bank_Street', 'http://dbpedia.org/resource/100_East_Bay_Street', 'http://dbpedia.org/resource/100_East_Pratt_Street', 'http://dbpedia.org/resource/100_Federal_Street', 'http://dbpedia.org/resource/100_Mile_House,_British_Columbia', 'http://dbpedia.org/resource/100_Mile_House', 'http://dbpedia.org/resource/100_Parliament_Street', 'http://dbpedia.org/resource/101_California_Street', 'http://dbpedia.org/resource/101_Collins_Street', 'http://dbpedia.org/resource/101_Park_Avenue', 'http://dbpedia.org/resource/101_Second_Street', 'http://dbpedia.org/resource/102_Petty_France', 'http://dbpedia.org/resource/105_Mile_House', 'http://dbpedia.org/resource/1060_Fulton_Mall', 'http://dbpedia.org/resource/108_Mile_Ranch,_British_Columbia', 'http://dbpedia.org/resource/108_Mile_Ranch', 'http://dbpedia.org/resource/109_Street,_Edmonton', 'http://dbpedia.org/resource/10th_arrondissement_of_Paris', 'http://dbpedia.org/resource/10th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/11_June_Stadium', 'http://dbpedia.org/resource/11_Stanwix_Street', 'http://dbpedia.org/resource/1109_Fifth_Avenue', 'http://dbpedia.org/resource/110th_Street_(Manhattan)', 'http://dbpedia.org/resource/111_Huntington_Avenue', 'http://dbpedia.org/resource/1166_(building)', 'http://dbpedia.org/resource/1166_Avenue_of_the_Americas', 'http://dbpedia.org/resource/11th_arrondissement_of_Paris', 'http://dbpedia.org/resource/11th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/12_Endeavour_Square', 'http://dbpedia.org/resource/120_Broadway', 'http://dbpedia.org/resource/1201_Pennsylvania_Avenue', 'http://dbpedia.org/resource/1211_Avenue_of_the_Americas', 'http://dbpedia.org/resource/122_Leadenhall_Street', 'http://dbpedia.org/resource/123rd_Street_(Manhattan)', 'http://dbpedia.org/resource/124_Horseferry_Road', 'http://dbpedia.org/resource/1251_Avenue_of_the_Americas', 'http://dbpedia.org/resource/1271_Avenue_of_the_Americas', 'http://dbpedia.org/resource/12th_arrondissement_of_Paris', 'http://dbpedia.org/resource/130_West_42nd_Street', 'http://dbpedia.org/resource/1310_G_Street', 'http://dbpedia.org/resource/1333_H_Street', 'http://dbpedia.org/resource/1345_Avenue_of_the_Americas', 'http://dbpedia.org/resource/13th_arrondissement_of_Paris', 'http://dbpedia.org/resource/14_Wall_Street', 'http://dbpedia.org/resource/140_Broadway', 'http://dbpedia.org/resource/140_St_Georges_Terrace', 'http://dbpedia.org/resource/1430_K_Street', 'http://dbpedia.org/resource/14th_arrondissement_of_Paris', 'http://dbpedia.org/resource/14th_Street_(Manhattan)', 'http://dbpedia.org/resource/14th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/14th_Street_Northwest_and_Southwest_(Washington,_D.C.)', 'http://dbpedia.org/resource/15_Westferry_Circus', 'http://dbpedia.org/resource/1500_Broadway', 'http://dbpedia.org/resource/1501_Broadway', 'http://dbpedia.org/resource/151_North_Franklin', 'http://dbpedia.org/resource/155th_Street_(Manhattan)', 'http://dbpedia.org/resource/15th_arrondissement_of_Paris', 'http://dbpedia.org/resource/15th_Street_(Manhattan)', 'http://dbpedia.org/resource/16_Collyer_Quay', 'http://dbpedia.org/resource/160_Tooley_Street', 'http://dbpedia.org/resource/160th_Street_(Manhattan)', 'http://dbpedia.org/resource/162nd_Street_(Manhattan)', 'http://dbpedia.org/resource/16th_arrondissement_of_Paris', 'http://dbpedia.org/resource/16th_district_of_Budapest', 'http://dbpedia.org/resource/16th_Street_(Manhattan)', 'http://dbpedia.org/resource/16th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_Northwest_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_Northwest', 'http://dbpedia.org/resource/16th_Street_NW_(Washington,_D.C.)', 'http://dbpedia.org/resource/16th_Street_NW', 'http://dbpedia.org/resource/17_State_Street', 'http://dbpedia.org/resource/17th_arrondissement_of_Paris', 'http://dbpedia.org/resource/17th_Street_(Manhattan)', 'http://dbpedia.org/resource/17th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/18_de_Julio_Avenue', 'http://dbpedia.org/resource/180_Montgomery_Street', 'http://dbpedia.org/resource/181_West_Madison_Street', 'http://dbpedia.org/resource/18th_and_Vine_Historic_District', 'http://dbpedia.org/resource/18th_arrondissement_of_Paris', 'http://dbpedia.org/resource/18th_arrondissement', 'http://dbpedia.org/resource/19_Court_Street', 'http://dbpedia.org/resource/1900_Avenue_of_the_Stars', 'http://dbpedia.org/resource/191_North_Wacker', "http://dbpedia.org/resource/1964_New_York_World's_Fair", 'http://dbpedia.org/resource/1981_McGill_College', "http://dbpedia.org/resource/1991–92_Ohio_Bobcats_men's_basketball_team", 'http://dbpedia.org/resource/19th_arrondissement_of_Paris', 'http://dbpedia.org/resource/19th_Street_(Manhattan)', 'http://dbpedia.org/resource/1st_arrondissement_of_Lyon', 'http://dbpedia.org/resource/1st_arrondissement_of_Marseille', 'http://dbpedia.org/resource/1st_arrondissement_of_Paris', 'http://dbpedia.org/resource/1st_Mariner_Arena', 'http://dbpedia.org/resource/1stBank_Center', 'http://dbpedia.org/resource/1STBANK_Center', 'http://dbpedia.org/resource/2_Columbus_Circle', 'http://dbpedia.org/resource/2_High_Street,_Perth', 'http://dbpedia.org/resource/2_Marsham_Street', 'http://dbpedia.org/resource/20_August_1955_Stadium', 'http://dbpedia.org/resource/200_Fifth_Avenue', 'http://dbpedia.org/resource/200_Vesey_Street', 'http://dbpedia.org/resource/200_West_Street', 'http://dbpedia.org/resource/2006_Dakar_Rally', 'http://dbpedia.org/resource/201_Portage', 'http://dbpedia.org/resource/2013_Seve_Trophy', 'http://dbpedia.org/resource/2021_Ryder_Cup', 'http://dbpedia.org/resource/2022_LPGA_Tour', "http://dbpedia.org/resource/2022_U.S._Women's_Open", 'http://dbpedia.org/resource/20th_arrondissement_of_Paris', 'http://dbpedia.org/resource/20th_Century_Fox_Television', 'http://dbpedia.org/resource/20th_Century_Fox', 'http://dbpedia.org/resource/20th_Street_(Manhattan)', 'http://dbpedia.org/resource/20th-Century_Fox', 'http://dbpedia.org/resource/21st_Street_(Manhattan)', 'http://dbpedia.org/resource/224_West_57th_Street', 'http://dbpedia.org/resource/225_Bush_Street', 'http://dbpedia.org/resource/225_Liberty_Street', 'http://dbpedia.org/resource/22nd_Street_(Manhattan)', 'http://dbpedia.org/resource/22nd_Street_(Saskatoon)', 'http://dbpedia.org/resource/230_Park_Avenue', 'http://dbpedia.org/resource/2300_Arena', 'http://dbpedia.org/resource/23rd_Regiment_Armory', 'http://dbpedia.org/resource/23rd_Street_(Manhattan)', 'http://dbpedia.org/resource/245_Park_Avenue', 'http://dbpedia.org/resource/25_Cabot_Square', 'http://dbpedia.org/resource/25_Canada_Square', 'http://dbpedia.org/resource/25_North_Colonnade', 'http://dbpedia.org/resource/250_Greenwich_Street', 'http://dbpedia.org/resource/250_Richmond_Street_West', 'http://dbpedia.org/resource/250_Vesey_Street', 'http://dbpedia.org/resource/25th_Street_(Manhattan)', 'http://dbpedia.org/resource/26th_Street_(Manhattan)', 'http://dbpedia.org/resource/277_Park_Avenue', 'http://dbpedia.org/resource/28_Liberty_Street', 'http://dbpedia.org/resource/28_State_Street', 'http://dbpedia.org/resource/299_Queen_Street_West', 'http://dbpedia.org/resource/29th_Street_(Manhattan)', 'http://dbpedia.org/resource/2nd_arrondissement_of_Lyon', 'http://dbpedia.org/resource/2nd_arrondissement_of_Paris', 'http://dbpedia.org/resource/3_Mills_Studios', 'http://dbpedia.org/resource/3_World_Trade_Center', 'http://dbpedia.org/resource/30_Hudson_Yards', 'http://dbpedia.org/resource/30_June_Stadium', 'http://dbpedia.org/resource/30_North_LaSalle', 'http://dbpedia.org/resource/30_Rockefeller_Center', 'http://dbpedia.org/resource/30_Rockefeller_Plaza', 'http://dbpedia.org/resource/30_St_Mary_Axe', 'http://dbpedia.org/resource/300_North_LaSalle', 'http://dbpedia.org/resource/30th_Street_(Manhattan)', 'http://dbpedia.org/resource/345_Park_Avenue', 'http://dbpedia.org/resource/34th_Street_(Manhattan)', 'http://dbpedia.org/resource/353_North_Clark', 'http://dbpedia.org/resource/36th_Street_(Manhattan)', 'http://dbpedia.org/resource/385_Bourke_Street', 'http://dbpedia.org/resource/399_Park_Avenue', 'http://dbpedia.org/resource/3Arena', 'http://dbpedia.org/resource/3rd_arrondissement_of_Lyon', 'http://dbpedia.org/resource/3rd_arrondissement_of_Paris', 'http://dbpedia.org/resource/3rd_Circle', 'http://dbpedia.org/resource/3rd_Street_(Manhattan)', 'http://dbpedia.org/resource/4_Hamilton_Place', 'http://dbpedia.org/resource/4_World_Trade_Center', 'http://dbpedia.org/resource/40_Wall_Street', 'http://dbpedia.org/resource/40_Watt_Club', 'http://dbpedia.org/resource/400_George_Street', 'http://dbpedia.org/resource/40th_Street_(Manhattan)', 'http://dbpedia.org/resource/42_Wall_Street', 'http://dbpedia.org/resource/42nd_Street_(Manhattan)', 'http://dbpedia.org/resource/450_Lexington_Avenue', 'http://dbpedia.org/resource/46th_Street_(Manhattan)', 'http://dbpedia.org/resource/48_Wall_Street', 'http://dbpedia.org/resource/48th_Street_(Manhattan)', 'http://dbpedia.org/resource/4th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/4th_arrondissement_of_Paris', 'http://dbpedia.org/resource/4th_Ring_Road_(Beijing)', 'http://dbpedia.org/resource/4th_Street_(Manhattan)', 'http://dbpedia.org/resource/500_Boylston_Street', 'http://dbpedia.org/resource/500_Park_Avenue', 'http://dbpedia.org/resource/505_(Nashville)', 'http://dbpedia.org/resource/50th_Street_(Manhattan)', 'http://dbpedia.org/resource/52nd_Street_(Manhattan)', 'http://dbpedia.org/resource/53rd_Street_(Manhattan)', 'http://dbpedia.org/resource/53rd_Street', 'http://dbpedia.org/resource/55_Baker_Street', 'http://dbpedia.org/resource/55_Tufton_Street', 'http://dbpedia.org/resource/55_Water_Street', 'http://dbpedia.org/resource/555_California_Street', 'http://dbpedia.org/resource/555_Mission_Street', 'http://dbpedia.org/resource/55th_Street_(Manhattan)', 'http://dbpedia.org/resource/57th_Street_(Manhattan)', 'http://dbpedia.org/resource/590_Madison_Avenue', 'http://dbpedia.org/resource/595_Market_Street', 'http://dbpedia.org/resource/599_Lexington_Avenue', 'http://dbpedia.org/resource/59th_Street_(Manhattan)', 'http://dbpedia.org/resource/5th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/5th_arrondissement_of_Paris', 'http://dbpedia.org/resource/5th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/601_Lexington_Avenue', 'http://dbpedia.org/resource/61st_Street_(Manhattan)', 'http://dbpedia.org/resource/62nd_Street_(Manhattan)', 'http://dbpedia.org/resource/63_Building', 'http://dbpedia.org/resource/666_(number)', 'http://dbpedia.org/resource/66th_Street_(Manhattan)', 'http://dbpedia.org/resource/68th_Street_(Manhattan)', 'http://dbpedia.org/resource/69th_Regiment_Armory', 'http://dbpedia.org/resource/6th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/6th_arrondissement_of_Paris', 'http://dbpedia.org/resource/6th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/6th_October_City', 'http://dbpedia.org/resource/6th_of_October_(city)', 'http://dbpedia.org/resource/6th_of_October_City', 'http://dbpedia.org/resource/6th_of_October_Governorate', 'http://dbpedia.org/resource/6th_of_October_Sports_Hall', 'http://dbpedia.org/resource/6th_Street_(Manhattan)', 'http://dbpedia.org/resource/7_World_Trade_Center', 'http://dbpedia.org/resource/700th_Anniversary_Stadium', 'http://dbpedia.org/resource/70th_Street_(Manhattan)', 'http://dbpedia.org/resource/712_5th_Avenue', 'http://dbpedia.org/resource/712_Fifth_Avenue', 'http://dbpedia.org/resource/72nd_Street_(Manhattan)', 'http://dbpedia.org/resource/731_Lexington_Avenue', 'http://dbpedia.org/resource/74th_Street_(Manhattan)', 'http://dbpedia.org/resource/75_State_Street', 'http://dbpedia.org/resource/75006', 'http://dbpedia.org/resource/767_Fifth_Avenue', 'http://dbpedia.org/resource/77_West_Wacker_Drive', 'http://dbpedia.org/resource/77th_Street_(Manhattan)', 'http://dbpedia.org/resource/798_Art_Zone', 'http://dbpedia.org/resource/7mate', 'http://dbpedia.org/resource/7th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/7th_arrondissement_of_Paris', 'http://dbpedia.org/resource/7th_District_Police_Station', 'http://dbpedia.org/resource/7th_Street_(Los_Angeles)', 'http://dbpedia.org/resource/7th_Street_(Manhattan)', 'http://dbpedia.org/resource/7th_Street_(Washington,_D.C.)', 'http://dbpedia.org/resource/7Two', 'http://dbpedia.org/resource/8_Canada_Square', 'http://dbpedia.org/resource/80th_Birthday_Stadium', 'http://dbpedia.org/resource/826_Valencia', 'http://dbpedia.org/resource/826CHI', 'http://dbpedia.org/resource/826LA', 'http://dbpedia.org/resource/826NYC', 'http://dbpedia.org/resource/85th_Street', 'http://dbpedia.org/resource/86th_Street_(IRT_Lexington_Avenue_Line)', 'http://dbpedia.org/resource/88th_Street_(Manhattan)', 'http://dbpedia.org/resource/89_Albert_Embankment', 'http://dbpedia.org/resource/89th_Street_(Manhattan)', 'http://dbpedia.org/resource/8th_arrondissement_of_Lyon', 'http://dbpedia.org/resource/8th_arrondissement_of_Marseille', 'http://dbpedia.org/resource/8th_arrondissement_of_Paris', 'http://dbpedia.org/resource/9_Channel_Nine_Court', 'http://dbpedia.org/resource/9_de_Julio_Avenue', 'http://dbpedia.org/resource/9_Downing_Street', 'http://dbpedia.org/resource/900_North_Michigan', 'http://dbpedia.org/resource/945_Madison_Avenue', 'http://dbpedia.org/resource/9th_arrondissement_of_Paris', 'http://dbpedia.org/resource/9th_Avenue_(Manhattan)', 'http://dbpedia.org/resource/A_Coruña_(province)', 'http://dbpedia.org/resource/A_Coruña', 'http://dbpedia.org/resource/A_Estrada', 'http://dbpedia.org/resource/A.A._Maramis_Building', 'http://dbpedia.org/resource/A.C._Guards', 'http://dbpedia.org/resource/A148_road', 'http://dbpedia.org/resource/A149_road', 'http://dbpedia.org/resource/A19_road_(Great_Britain)', 'http://dbpedia.org/resource/A212_road', 'http://dbpedia.org/resource/A22_road', 'http://dbpedia.org/resource/A23_road', 'http://dbpedia.org/resource/A26_road', 'http://dbpedia.org/resource/A30_road_(England)', 'http://dbpedia.org/resource/A307_road', 'http://dbpedia.org/resource/A320_road', 'http://dbpedia.org/resource/A458_road', 'http://dbpedia.org/resource/A49_road', 'http://dbpedia.org/resource/A5_road_(Isle_of_Man)', 'http://dbpedia.org/resource/A6_road_(Great_Britain)', 'http://dbpedia.org/resource/A66_road', 'http://dbpedia.org/resource/A660_road', 'http://dbpedia.org/resource/A815_road', 'http://dbpedia.org/resource/A82_road', 'http://dbpedia.org/resource/A85_road', 'http://dbpedia.org/resource/A850_road', 'http://dbpedia.org/resource/A9_road_(Sri_Lanka)', 'http://dbpedia.org/resource/Aabenraa', 'http://dbpedia.org/resource/Aabpara', 'http://dbpedia.org/resource/Aabybro', 'http://dbpedia.org/resource/Aachen_(district)', 'http://dbpedia.org/resource/Aachen-Mitte', 'http://dbpedia.org/resource/Aachen,_Germany', 'http://dbpedia.org/resource/Aachen', 'http://dbpedia.org/resource/Aakkulam,_Thiruvananthapuram,_Kerala', 'http://dbpedia.org/resource/Aalborg,_Denmark', 'http://dbpedia.org/resource/Aalborg', 'http://dbpedia.org/resource/Aalen', 'http://dbpedia.org/resource/Aalsmeer', 'http://dbpedia.org/resource/Aalst,_Belgium', 'http://dbpedia.org/resource/Aamby_Valley', 'http://dbpedia.org/resource/Aarau', 'http://dbpedia.org/resource/Aarberg', 'http://dbpedia.org/resource/Aarburg', 'http://dbpedia.org/resource/Aardenburg', 'http://dbpedia.org/resource/Aare', 'http://dbpedia.org/resource/Aargau', 'http://dbpedia.org/resource/Aarhus_C', 'http://dbpedia.org/resource/Aarhus_Municipality', 'http://dbpedia.org/resource/Aarhus_N', 'http://dbpedia.org/resource/Aarhus_Stadium', 'http://dbpedia.org/resource/Aarhus_University', 'http://dbpedia.org/resource/Aarhus_V', 'http://dbpedia.org/resource/Aarhus', 'http://dbpedia.org/resource/Aaronsburg,_Centre_County,_Pennsylvania', 'http://dbpedia.org/resource/Aars', 'http://dbpedia.org/resource/Aarschot', 'http://dbpedia.org/resource/Aarup', 'http://dbpedia.org/resource/Aasiaat', 'http://dbpedia.org/resource/Aastrup,_Falster', 'http://dbpedia.org/resource/Ab_Kettleby', 'http://dbpedia.org/resource/Aba,_Abia', 'http://dbpedia.org/resource/Aba,_Nigeria', 'http://dbpedia.org/resource/Abadan,_Iran', 'http://dbpedia.org/resource/Abadan,_Khoozestan', 'http://dbpedia.org/resource/Abadan,_Turkmenistan', 'http://dbpedia.org/resource/Abadan', 'http://dbpedia.org/resource/Abadeh_County', 'http://dbpedia.org/resource/Abaetetuba', 'http://dbpedia.org/resource/Abaiang', 'http://dbpedia.org/resource/Abajah', 'http://dbpedia.org/resource/Abakan', 'http://dbpedia.org/resource/Abalessa', 'http://dbpedia.org/resource/Ábalos,_La_Rioja', 'http://dbpedia.org/resource/Abancay_Province', 'http://dbpedia.org/resource/Abancay', 'http://dbpedia.org/resource/Abando', 'http://dbpedia.org/resource/Abano_Terme', 'http://dbpedia.org/resource/Abarkuh_County', 'http://dbpedia.org/resource/Abarkuh', 'http://dbpedia.org/resource/Abashiri_Subprefecture', 'http://dbpedia.org/resource/Abashiri,_Hokkaido', 'http://dbpedia.org/resource/Abashiri', 'http://dbpedia.org/resource/Abau', 'http://dbpedia.org/resource/Abbasid_Samarra', 'http://dbpedia.org/resource/Abbassia', 'http://dbpedia.org/resource/Abberton,_Worcestershire', 'http://dbpedia.org/resource/Abbeville_County,_South_Carolina', 'http://dbpedia.org/resource/Abbeville,_Alabama', 'http://dbpedia.org/resource/Abbeville,_County_Tipperary_(townland)', 'http://dbpedia.org/resource/Abbeville,_Georgia', 'http://dbpedia.org/resource/Abbeville,_Louisiana', 'http://dbpedia.org/resource/Abbeville,_South_Carolina', 'http://dbpedia.org/resource/Abbeville', 'http://dbpedia.org/resource/Abbey_Dore', 'http://dbpedia.org/resource/Abbey_of_Sainte-Trinité,_Caen', 'http://dbpedia.org/resource/Abbey_Park,_Leicester', 'http://dbpedia.org/resource/Abbey_Wood', 'http://dbpedia.org/resource/Abbeyfeale', 'http://dbpedia.org/resource/Abbeyleix', 'http://dbpedia.org/resource/Abbeyshrule', 'http://dbpedia.org/resource/Abbeystead', 'http://dbpedia.org/resource/Abbeytown', 'http://dbpedia.org/resource/Abbiategrasso', 'http://dbpedia.org/resource/Abbot_Pass', 'http://dbpedia.org/resource/Abbots_Langley', 'http://dbpedia.org/resource/Abbots_Leigh', 'http://dbpedia.org/resource/Abbotsbury,_New_South_Wales', 'http://dbpedia.org/resource/Abbotsbury', 'http://dbpedia.org/resource/Abbotsford_International_Airport', 'http://dbpedia.org/resource/Abbotsford,_British_Columbia', 'http://dbpedia.org/resource/Abbotsford,_Victoria', 'http://dbpedia.org/resource/Abbotsham', 'http://dbpedia.org/resource/Abbotsinch', 'http://dbpedia.org/resource/Abbotsley', 'http://dbpedia.org/resource/Abbotstown_(townland)', 'http://dbpedia.org/resource/Abbott_Drive', 'http://dbpedia.org/resource/Abbottabad_District', 'http://dbpedia.org/resource/Abbottabad,_Khyber_Pakhtunkhwa', 'http://dbpedia.org/resource/Abbottabad', 'http://dbpedia.org/resource/Abbottstown,_Pennsylvania', 'http://dbpedia.org/resource/ABC_islands_(Alaska)', 'http://dbpedia.org/resource/ABC_Islands_(Alaska)', 'http://dbpedia.org/resource/ABC_Studios_(Australia)', 'http://dbpedia.org/resource/ABC_Television_Center', 'http://dbpedia.org/resource/Abdanan_County', 'http://dbpedia.org/resource/Abdi_İpekçi_Park', 'http://dbpedia.org/resource/Abdi_İpekçi_Street', 'http://dbpedia.org/resource/Abdullah_bin_Khalifa_Stadium', 'http://dbpedia.org/resource/Abel_Iturralde_Province', 'http://dbpedia.org/resource/Abel_Tasman_National_Park', 'http://dbpedia.org/resource/Abeno-ku,_Osaka', 'http://dbpedia.org/resource/Abeokuta', 'http://dbpedia.org/resource/Aberaeron', 'http://dbpedia.org/resource/Aberavon', 'http://dbpedia.org/resource/Aberbargoed', 'http://dbpedia.org/resource/Aberbeeg', 'http://dbpedia.org/resource/Abercarn', 'http://dbpedia.org/resource/Aberchirder', 'http://dbpedia.org/resource/Abercorn', 'http://dbpedia.org/resource/Abercraf', 'http://dbpedia.org/resource/Abercrombie,_North_Dakota', 'http://dbpedia.org/resource/Abercynon', 'http://dbpedia.org/resource/Aberdare_National_Park', 'http://dbpedia.org/resource/Aberdare', 'http://dbpedia.org/resource/Aberdaron', 'http://dbpedia.org/resource/Aberdeen_(Hong_Kong)', 'http://dbpedia.org/resource/Aberdeen_City', 'http://dbpedia.org/resource/Aberdeen_Pavilion', 'http://dbpedia.org/resource/Aberdeen_Proving_Ground,_Maryland', 'http://dbpedia.org/resource/Aberdeen_Proving_Ground', 'http://dbpedia.org/resource/Aberdeen_Township,_New_Jersey', 'http://dbpedia.org/resource/Aberdeen,_Eastern_Cape', 'http://dbpedia.org/resource/Aberdeen,_Hong_Kong', 'http://dbpedia.org/resource/Aberdeen,_Maryland', 'http://dbpedia.org/resource/Aberdeen,_Mississippi', 'http://dbpedia.org/resource/Aberdeen,_North_Carolina', 'http://dbpedia.org/resource/Aberdeen,_Ohio', 'http://dbpedia.org/resource/Aberdeen,_Scotland', 'http://dbpedia.org/resource/Aberdeen,_South_Dakota', 'http://dbpedia.org/resource/Aberdeen,_Washington', 'http://dbpedia.org/resource/Aberdeen', 'http://dbpedia.org/resource/Aberdeenshire_(council_area)', 'http://dbpedia.org/resource/Aberdeenshire_(traditional)', 'http://dbpedia.org/resource/Aberdeenshire', 'http://dbpedia.org/resource/Aberdour', 'http://dbpedia.org/resource/Aberdyfi', 'http://dbpedia.org/resource/Aberfeldy,_Perth_and_Kinross', 'http://dbpedia.org/resource/Aberffraw', 'http://dbpedia.org/resource/Aberford', 'http://dbpedia.org/resource/Abergavenny', 'http://dbpedia.org/resource/Abergaveny', 'http://dbpedia.org/resource/Abergele', 'http://dbpedia.org/resource/Aberglasslyn,_New_South_Wales', 'http://dbpedia.org/resource/Abergwili', 'http://dbpedia.org/resource/Abergwyngregyn', 'http://dbpedia.org/resource/Aberkenfig', 'http://dbpedia.org/resource/Aberlady', 'http://dbpedia.org/resource/Aberlour', 'http://dbpedia.org/resource/Abermule', 'http://dbpedia.org/resource/Abernethy_No._186,_Saskatchewan', 'http://dbpedia.org/resource/Abernethy,_Perth_and_Kinross', 'http://dbpedia.org/resource/Aberporth', 'http://dbpedia.org/resource/Abertillery', 'http://dbpedia.org/resource/Aberuthven', 'http://dbpedia.org/resource/Aberystwyth_Arts_Centre', 'http://dbpedia.org/resource/Aberystwyth_University', 'http://dbpedia.org/resource/Aberystwyth,_Wales', 'http://dbpedia.org/resource/Aberystwyth', 'http://dbpedia.org/resource/Aberyswyth', 'http://dbpedia.org/resource/Abha,_Saudi_Arabia', 'http://dbpedia.org/resource/Abhar_County', 'http://dbpedia.org/resource/Abhayagiri_Monastery', 'http://dbpedia.org/resource/Abhayapuri', 'http://dbpedia.org/resource/Abia_State', 'http://dbpedia.org/resource/Abiansemal', 'http://dbpedia.org/resource/Abidjan,_Ivory_Coast', 'http://dbpedia.org/resource/Abidjan', 'http://dbpedia.org/resource/Abids', 'http://dbpedia.org/resource/Abiko,_Chiba', 'http://dbpedia.org/resource/Abilene,_Kansas', 'http://dbpedia.org/resource/Abilene,_Texas', 'http://dbpedia.org/resource/Abim,_Uganda', 'http://dbpedia.org/resource/Abingdon_Downs,_Queensland', 'http://dbpedia.org/resource/Abingdon_Square_Park', 'http://dbpedia.org/resource/Abingdon-on-Thames', 'http://dbpedia.org/resource/Abingdon,_Maryland', 'http://dbpedia.org/resource/Abingdon,_Oxfordshire', 'http://dbpedia.org/resource/Abingdon,_Virginia', 'http://dbpedia.org/resource/Abinger_Common', 'http://dbpedia.org/resource/Abington_Township,_Montgomery_County,_Pennsylvania', 'http://dbpedia.org/resource/Abington,_Connecticut', 'http://dbpedia.org/resource/Abington,_Massachusetts', 'http://dbpedia.org/resource/Abington,_Northamptonshire', 'http://dbpedia.org/resource/Abington,_South_Lanarkshire', 'http://dbpedia.org/resource/Abiquiu,_New_Mexico', 'http://dbpedia.org/resource/Abiquiú,_New_Mexico', 'http://dbpedia.org/resource/Abira,_Hokkaido', 'http://dbpedia.org/resource/Abisko_Scientific_Research_Station', 'http://dbpedia.org/resource/Abisko', 'http://dbpedia.org/resource/Abita_Springs,_LA', 'http://dbpedia.org/resource/Abita_Springs,_Louisiana', 'http://dbpedia.org/resource/Abitibi_Regional_County_Municipality,_Quebec', 'http://dbpedia.org/resource/Abitibi-Ouest_Regional_County_Municipality,_Quebec', 'http://dbpedia.org/resource/Abitibi-Témiscamingue', 'http://dbpedia.org/resource/Abkhazia', 'http://dbpedia.org/resource/Ablation_Valley', 'http://dbpedia.org/resource/ABN_(TV_station)', 'http://dbpedia.org/resource/Aboadze', 'http://dbpedia.org/resource/Aboisso_Department', 'http://dbpedia.org/resource/Aboite_Township,_Allen_County,_Indiana', 'http://dbpedia.org/resource/Abomey', 'http://dbpedia.org/resource/Abondance,_Haute-Savoie', 'http://dbpedia.org/resource/Abondant', 'http://dbpedia.org/resource/Aboriginal_Shire_of_Palm_Island', 'http://dbpedia.org/resource/Abottabad', 'http://dbpedia.org/resource/Åboulevard', 'http://dbpedia.org/resource/Abovyan_Street', 'http://dbpedia.org/resource/Abovyan', 'http://dbpedia.org/resource/Aboyne', 'http://dbpedia.org/resource/Abqaiq', 'http://dbpedia.org/resource/Abra_(province)', 'http://dbpedia.org/resource/Abrantes', 'http://dbpedia.org/resource/Abrepo', 'http://dbpedia.org/resource/Abrera', 'http://dbpedia.org/resource/Abronhill', 'http://dbpedia.org/resource/Abrud', 'http://dbpedia.org/resource/Abruka', 'http://dbpedia.org/resource/Abruzzo', 'http://dbpedia.org/resource/ABS-CBN_Broadcasting_Center', 'http://dbpedia.org/resource/ABS-CBN_Studios', 'http://dbpedia.org/resource/Absam', 'http://dbpedia.org/resource/Absarokee,_Montana', 'http://dbpedia.org/resource/Absheron_Peninsula', 'http://dbpedia.org/resource/Absheron_Rayon', 'http://dbpedia.org/resource/Abstatt', 'http://dbpedia.org/resource/Abu_%60Arish', 'http://dbpedia.org/resource/Abu_Dhabi_(city)', 'http://dbpedia.org/resource/Abu_Dhabi_National_Exhibition_Centre', 'http://dbpedia.org/resource/Abu_Dhabi_National_Exhibitions_Company', 'http://dbpedia.org/resource/Abu_Dhabi,_UAE', 'http://dbpedia.org/resource/Abu_Dhabi', 'http://dbpedia.org/resource/Abu_Ghosh', 'http://dbpedia.org/resource/Abu_Ghraib', 'http://dbpedia.org/resource/Abu_Hamour', 'http://dbpedia.org/resource/Abu_Rummaneh', 'http://dbpedia.org/resource/Abuja,_FCT', 'http://dbpedia.org/resource/Abuja', 'http://dbpedia.org/resource/Aburi', 'http://dbpedia.org/resource/Abuta_District,_Hokkaidō', 'http://dbpedia.org/resource/Abuzeydabad', 'http://dbpedia.org/resource/Aby_District', 'http://dbpedia.org/resource/Åby_Racetrack', 'http://dbpedia.org/resource/Åbyhøj', 'http://dbpedia.org/resource/Abymes', 'http://dbpedia.org/resource/Acacia_Ridge,_Queensland', 'http://dbpedia.org/resource/Acacías', 'http://dbpedia.org/resource/Academy_of_Sciences_Range', 'http://dbpedia.org/resource/Academy,_South_Dakota', 'http://dbpedia.org/resource/Acadia_National_Park', 'http://dbpedia.org/resource/Acadia_Valley,_Alberta', 'http://dbpedia.org/resource/Acadia', 'http://dbpedia.org/resource/Acandí', 'http://dbpedia.org/resource/Acapulco,_Guerrero', 'http://dbpedia.org/resource/Acapulco,_Mexico', 'http://dbpedia.org/resource/Acapulco', 'http://dbpedia.org/resource/Acarígua,_Venezuela', 'http://dbpedia.org/resource/Acarigua', 'http://dbpedia.org/resource/Accident,_Maryland', 'http://dbpedia.org/resource/Accokeek,_Maryland', 'http://dbpedia.org/resource/Accomac,_Virginia', 'http://dbpedia.org/resource/Accomack_County,_Virginia', 'http://dbpedia.org/resource/Accor_Arena', 'http://dbpedia.org/resource/Accord,_New_York', 'http://dbpedia.org/resource/AccorHotels_Arena', 'http://dbpedia.org/resource/Accountor_Tower', 'http://dbpedia.org/resource/Accra_Sports_Stadium', 'http://dbpedia.org/resource/Accra,_Ghana', 'http://dbpedia.org/resource/Accra', 'http://dbpedia.org/resource/Accrington', 'http://dbpedia.org/resource/Accursed_Mountains', 'http://dbpedia.org/resource/Ace_Cafe', 'http://dbpedia.org/resource/Aceh_Besar_Regency', 'http://dbpedia.org/resource/Aceh_Singkil_Regency', 'http://dbpedia.org/resource/Aceh', 'http://dbpedia.org/resource/Aceitunas', 'http://dbpedia.org/resource/Acer_Arena', 'http://dbpedia.org/resource/Achada_Grande_Tras', 'http://dbpedia.org/resource/Achada_Santo_António', 'http://dbpedia.org/resource/Achaea', 'http://dbpedia.org/resource/Achaemenid_Empire', 'http://dbpedia.org/resource/Acharnes', 'http://dbpedia.org/resource/Acheleia', 'http://dbpedia.org/resource/Achern', 'http://dbpedia.org/resource/Achham_District', 'http://dbpedia.org/resource/Achill_Island', 'http://dbpedia.org/resource/Achimota', 'http://dbpedia.org/resource/Achnacroish', 'http://dbpedia.org/resource/Achnamara', 'http://dbpedia.org/resource/Achocalla_Municipality', 'http://dbpedia.org/resource/Achrafieh,_Beirut', 'http://dbpedia.org/resource/Achrafieh', 'http://dbpedia.org/resource/Achstetten', 'http://dbpedia.org/resource/Achterwasser', 'http://dbpedia.org/resource/Achwa_River', 'http://dbpedia.org/resource/Aci_Castello', 'http://dbpedia.org/resource/ACI_Vallelunga_Circuit', 'http://dbpedia.org/resource/Acilia', 'http://dbpedia.org/resource/Acireale', 'http://dbpedia.org/resource/Acıbadem_University', 'http://dbpedia.org/resource/Ackerville,_Alabama', 'http://dbpedia.org/resource/Acklam,_Middlesbrough', 'http://dbpedia.org/resource/Ackley,_Iowa', 'http://dbpedia.org/resource/Acklington', 'http://dbpedia.org/resource/Acland,_Queensland', 'http://dbpedia.org/resource/Acme_Township,_Michigan', 'http://dbpedia.org/resource/Acme,_Alberta', 'http://dbpedia.org/resource/Acocks_Green', 'http://dbpedia.org/resource/Acoma_Pueblo', 'http://dbpedia.org/resource/Acoma,_New_Mexico', 'http://dbpedia.org/resource/Acomb,_North_Yorkshire', 'http://dbpedia.org/resource/Aconbury', 'http://dbpedia.org/resource/Acquasparta', 'http://dbpedia.org/resource/Acre_(state)', 'http://dbpedia.org/resource/Acre,_Israel', 'http://dbpedia.org/resource/Acrise', 'http://dbpedia.org/resource/Acton_Burnell', 'http://dbpedia.org/resource/Acton_Green,_London', 'http://dbpedia.org/resource/Acton_Park,_Wrexham', 'http://dbpedia.org/resource/Acton,_Australian_Capital_Territory', 'http://dbpedia.org/resource/Acton,_Cheshire', 'http://dbpedia.org/resource/Acton,_London', 'http://dbpedia.org/resource/Acton,_Maine', 'http://dbpedia.org/resource/Acton,_Massachusetts', 'http://dbpedia.org/resource/Acton,_Suffolk', 'http://dbpedia.org/resource/Acton,_Texas', 'http://dbpedia.org/resource/Actopan,_Hidalgo', 'http://dbpedia.org/resource/Actors_Theatre_of_Louisville', 'http://dbpedia.org/resource/Aculco', 'http://dbpedia.org/resource/Acuña_(municipality)', 'http://dbpedia.org/resource/Acuña_Municipality', 'http://dbpedia.org/resource/Acushnet_River', 'http://dbpedia.org/resource/Acushnet,_Massachusetts', 'http://dbpedia.org/resource/Acworth,_Georgia', 'http://dbpedia.org/resource/Acworth,_New_Hampshire', 'http://dbpedia.org/resource/Ad_Dakhiliyah_Region', 'http://dbpedia.org/resource/Ad_Damazin', 'http://dbpedia.org/resource/Ad-Dawhah_(municipality)', 'http://dbpedia.org/resource/Ada_County,_Idaho', 'http://dbpedia.org/resource/Ada_Township,_Michigan', 'http://dbpedia.org/resource/Ada,_Michigan', 'http://dbpedia.org/resource/Ada,_Minnesota', 'http://dbpedia.org/resource/Ada,_Oklahoma', 'http://dbpedia.org/resource/Adabraka', 'http://dbpedia.org/resource/Adachi,_Tokyo', 'http://dbpedia.org/resource/Adair_County,_Kentucky', 'http://dbpedia.org/resource/Adair_County,_Missouri', 'http://dbpedia.org/resource/Adair_County,_Oklahoma', 'http://dbpedia.org/resource/Adair,_Iowa', 'http://dbpedia.org/resource/Adairsville,_Georgia', 'http://dbpedia.org/resource/Adak_Island', 'http://dbpedia.org/resource/Adak,_Alaska', 'http://dbpedia.org/resource/Adalar', 'http://dbpedia.org/resource/Adam,_Oman', 'http://dbpedia.org/resource/Adama', 'http://dbpedia.org/resource/Adamana,_Arizona', 'http://dbpedia.org/resource/Adamant_Range', 'http://dbpedia.org/resource/Adamant,_Vermont', 'http://dbpedia.org/resource/Adamawa_Province', 'http://dbpedia.org/resource/Adamawa_State', 'http://dbpedia.org/resource/Adaminaby,_New_South_Wales', 'http://dbpedia.org/resource/Adampur', 'http://dbpedia.org/resource/Adams_(village),_New_York', 'http://dbpedia.org/resource/Adams_Basin,_New_York', 'http://dbpedia.org/resource/Adams_County,_Colorado', 'http://dbpedia.org/resource/Adams_County,_Idaho', 'http://dbpedia.org/resource/Adams_County,_Illinois', 'http://dbpedia.org/resource/Adams_County,_Iowa', 'http://dbpedia.org/resource/Adams_County,_Mississippi', 'http://dbpedia.org/resource/Adams_County,_Ohio', 'http://dbpedia.org/resource/Adams_County,_Pennsylvania', 'http://dbpedia.org/resource/Adams_County,_Washington', 'http://dbpedia.org/resou</t>
         </is>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Where did Abraham Lincoln die?</t>
+          <t>How tall is Claudia Schiffer?</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Washington,_D.C.']</t>
+          <t>['1.8']</t>
         </is>
       </c>
       <c r="D22" t="b">
@@ -878,17 +878,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>In which country is the Limerick Lake?</t>
+          <t>Who wrote the book The Pillars of the Earth?</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Canada']</t>
+          <t>['http://dbpedia.org/resource/Ken_Follett']</t>
         </is>
       </c>
       <c r="D23" t="b">
@@ -898,17 +898,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>In which countries can you pay using the West African CFA franc?</t>
+          <t>What kind of music did Lou Reed play?</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Benin', 'http://dbpedia.org/resource/Burkina_Faso', 'http://dbpedia.org/resource/Colonial_Mauritania', 'http://dbpedia.org/resource/Colony_of_Niger', 'http://dbpedia.org/resource/Economic_Community_of_West_African_States', 'http://dbpedia.org/resource/French_Dahomey', 'http://dbpedia.org/resource/French_Togoland', 'http://dbpedia.org/resource/Guinea-Bissau', 'http://dbpedia.org/resource/History_of_Togo', 'http://dbpedia.org/resource/Ivory_Coast', 'http://dbpedia.org/resource/Mali', 'http://dbpedia.org/resource/Niger', "http://dbpedia.org/resource/People's_Republic_of_Benin", 'http://dbpedia.org/resource/Republic_of_Dahomey', 'http://dbpedia.org/resource/Republic_of_Upper_Volta', 'http://dbpedia.org/resource/Senegal', 'http://dbpedia.org/resource/Senegambia_Confederation', 'http://dbpedia.org/resource/Togo']</t>
+          <t>['http://dbpedia.org/resource/Art_rock', 'http://dbpedia.org/resource/Experimental_music', 'http://dbpedia.org/resource/Glam_rock', 'http://dbpedia.org/resource/Noise_rock', 'http://dbpedia.org/resource/Proto-punk', 'http://dbpedia.org/resource/Rock_music']</t>
         </is>
       </c>
       <c r="D24" t="b">
@@ -918,17 +918,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>how much is the population Iraq?</t>
+          <t>Give me the birth place of Frank Sinatra.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>['40462701']</t>
+          <t>['http://dbpedia.org/resource/Hoboken,_New_Jersey']</t>
         </is>
       </c>
       <c r="D25" t="b">
@@ -938,17 +938,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Give me the birthdays of all actors of the television show Charmed.</t>
+          <t>Which television shows were created by Walt Disney?</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
+          <t>['http://dbpedia.org/resource/Disney_anthology_television_series', 'http://dbpedia.org/resource/Donald_Duck', 'http://dbpedia.org/resource/Oswald_the_Lucky_Rabbit']</t>
         </is>
       </c>
       <c r="D26" t="b">
@@ -958,17 +958,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Who designed the Brooklyn Bridge?</t>
+          <t>In which country is the Limerick Lake?</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/John_Augustus_Roebling']</t>
+          <t>['http://dbpedia.org/resource/Canada']</t>
         </is>
       </c>
       <c r="D27" t="b">
@@ -978,17 +978,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Who wrote the Game of Thrones theme?</t>
+          <t>Which films starring Clint Eastwood did he direct himself?</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
+          <t>['http://dbpedia.org/resource/A_Perfect_World', 'http://dbpedia.org/resource/Absolute_Power_(film)', 'http://dbpedia.org/resource/Blood_Work_(film)', 'http://dbpedia.org/resource/Cry_Macho_(film)', 'http://dbpedia.org/resource/Dirty_Harry_(film_series)', 'http://dbpedia.org/resource/Firefox_(film)', 'http://dbpedia.org/resource/Gran_Torino', 'http://dbpedia.org/resource/Heartbreak_Ridge', 'http://dbpedia.org/resource/High_Plains_Drifter', 'http://dbpedia.org/resource/Honkytonk_Man', 'http://dbpedia.org/resource/Million_Dollar_Baby__Million_Dollar_Baby__1', 'http://dbpedia.org/resource/Pale_Rider', 'http://dbpedia.org/resource/Play_Misty_for_Me', 'http://dbpedia.org/resource/Space_Cowboys', 'http://dbpedia.org/resource/Sudden_Impact', 'http://dbpedia.org/resource/The_Bridges_of_Madison_County_(film)', 'http://dbpedia.org/resource/The_Eiger_Sanction_(film)', 'http://dbpedia.org/resource/The_Mule_(2018_film)', 'http://dbpedia.org/resource/The_Outlaw_Josey_Wales__The_Outlaw_Josey_Wales__1', 'http://dbpedia.org/resource/The_Rookie_(1990_film)', 'http://dbpedia.org/resource/True_Crime_(1999_film)', 'http://dbpedia.org/resource/Unforgiven', 'http://dbpedia.org/resource/White_Hunter_Black_Heart']</t>
         </is>
       </c>
       <c r="D28" t="b">
@@ -998,37 +998,37 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>What is the birth name of Adele?</t>
+          <t>Give me the birthdays of all actors of the television show Charmed.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['1965-10-01', '1968-07-27', '1969-02-01', '1971-01-26', '1971-04-12', '1972-12-19', '1973-06-15', '1973-09-05', '1973-12-03', '1980-05-19', '1985-11-30']</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>['Adele Laurie Blue Adkins']</t>
+          <t>['http://dbpedia.org/resource/Alyssa_Milano', '1972-12-19', 'http://dbpedia.org/resource/Brian_Krause', '1969-02-01', 'http://dbpedia.org/resource/Dorian_Gregory', '1971-01-26', 'http://dbpedia.org/resource/Drew_Fuller', '1980-05-19', 'http://dbpedia.org/resource/Greg_Vaughan', '1973-06-15', 'http://dbpedia.org/resource/Holly_Marie_Combs', '1973-12-03', 'http://dbpedia.org/resource/Julian_McMahon', '1968-07-27', 'http://dbpedia.org/resource/Kaley_Cuoco', '1985-11-30', 'http://dbpedia.org/resource/Rose_McGowan', '1973-09-05', 'http://dbpedia.org/resource/Shannen_Doherty', '1971-04-12', 'http://dbpedia.org/resource/Ted_King_(actor)', '1965-10-01']</t>
         </is>
       </c>
       <c r="D29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>What is the currency of the Czech Republic?</t>
+          <t>Who wrote the Game of Thrones theme?</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Czech_koruna']</t>
+          <t>['http://dbpedia.org/resource/Ramin_Djawadi']</t>
         </is>
       </c>
       <c r="D30" t="b">
@@ -1038,17 +1038,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Give me a list of all bandleaders that play trumpet.</t>
+          <t>Give me all movies directed by Francis Ford Coppola.</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
+          <t>['http://dbpedia.org/resource/Apocalypse_Now_Redux', 'http://dbpedia.org/resource/Battle_Beyond_the_Sun', "http://dbpedia.org/resource/Bram_Stoker's_Dracula_(1992_film)", 'http://dbpedia.org/resource/Captain_EO', 'http://dbpedia.org/resource/Dementia_13', 'http://dbpedia.org/resource/Distant_Vision', "http://dbpedia.org/resource/Finian's_Rainbow_(1968_film)", 'http://dbpedia.org/resource/Gardens_of_Stone', 'http://dbpedia.org/resource/Jack_(1996_film)', 'http://dbpedia.org/resource/Megalopolis_(film)', 'http://dbpedia.org/resource/New_York_Stories', 'http://dbpedia.org/resource/One_from_the_Heart', 'http://dbpedia.org/resource/Peggy_Sue_Got_Married', 'http://dbpedia.org/resource/Rumble_Fish', 'http://dbpedia.org/resource/Supernova_(2000_film)', 'http://dbpedia.org/resource/Tetro', 'http://dbpedia.org/resource/The_Bellboy_and_the_Playgirls', 'http://dbpedia.org/resource/The_Conversation', 'http://dbpedia.org/resource/The_Cotton_Club_(film)', 'http://dbpedia.org/resource/The_Godfather_(film_series)', 'http://dbpedia.org/resource/The_Godfather_Part_II', 'http://dbpedia.org/resource/The_Godfather_Part_III', 'http://dbpedia.org/resource/The_Godfather_Saga__The_Godfather_Trilogy:_1901–1980__1', 'http://dbpedia.org/resource/The_Godfather', 'http://dbpedia.org/resource/The_Outsiders_(film)', 'http://dbpedia.org/resource/The_Rain_People', 'http://dbpedia.org/resource/The_Rainmaker_(1997_film)', 'http://dbpedia.org/resource/The_Terror_(1963_film)', 'http://dbpedia.org/resource/Tonight_for_Sure', 'http://dbpedia.org/resource/Tucker:_The_Man_and_His_Dream', 'http://dbpedia.org/resource/Twixt_(film)', "http://dbpedia.org/resource/You're_a_Big_Boy_Now", 'http://dbpedia.org/resource/Youth_Without_Youth_(film)']</t>
         </is>
       </c>
       <c r="D31" t="b">
@@ -1058,17 +1058,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>What is the capital of Canada?</t>
+          <t>What is the birth name of Adele?</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Ottawa']</t>
+          <t>['Adele Laurie Blue Adkins']</t>
         </is>
       </c>
       <c r="D32" t="b">
@@ -1078,17 +1078,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>How many programming languages are there?</t>
+          <t>What was the first Queen album?</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['http://dbpedia.org/resource/Seven_Seas_of_Rhye']</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>['1325']</t>
+          <t>['http://dbpedia.org/resource/Seven_Seas_of_Rhye']</t>
         </is>
       </c>
       <c r="D33" t="b">
@@ -1098,17 +1098,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Who created Family Guy?</t>
+          <t>Give me all people that were born in Vienna and died in Berlin.</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
+          <t>['http://dbpedia.org/resource/Adolf_Klein', 'http://dbpedia.org/resource/Eduard_von_Winterstein', 'http://dbpedia.org/resource/Eleonore_de_Ahna', 'http://dbpedia.org/resource/Emil_Justitz', 'http://dbpedia.org/resource/Erik_Jan_Hanussen', 'http://dbpedia.org/resource/Eva_Schmidt-Kolmer', 'http://dbpedia.org/resource/Gerda_Laski', 'http://dbpedia.org/resource/Guido_von_List', 'http://dbpedia.org/resource/Hans_Fidesser', 'http://dbpedia.org/resource/Heinrich_Belohlavek', 'http://dbpedia.org/resource/Hugo_Flink', 'http://dbpedia.org/resource/Josephine_Pagay', 'http://dbpedia.org/resource/Karl_Etlinger', 'http://dbpedia.org/resource/Karl_Hellmer', 'http://dbpedia.org/resource/La_Jana_(actress)', 'http://dbpedia.org/resource/Luise_Begas-Parmentier', 'http://dbpedia.org/resource/Mathilde_Danegger', 'http://dbpedia.org/resource/Michael_von_Newlinsky', 'http://dbpedia.org/resource/Richard_Thurnwald', 'http://dbpedia.org/resource/Robert_Bodanzky', 'http://dbpedia.org/resource/Steffie_Spira', 'http://dbpedia.org/resource/Therese_Grünbaum', 'http://dbpedia.org/resource/Tom_Seidmann-Freud']</t>
         </is>
       </c>
       <c r="D34" t="b">
@@ -1118,17 +1118,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>How much is the population of mexico city ?</t>
+          <t>Who discovered Ceres?</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>['9209944']</t>
+          <t>['http://dbpedia.org/resource/Giuseppe_Piazzi']</t>
         </is>
       </c>
       <c r="D35" t="b">
@@ -1138,17 +1138,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Who created Batman?</t>
+          <t>Give me a list of all bandleaders that play trumpet.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/Bill_Finger', 'http://dbpedia.org/resource/Bob_Kane']</t>
+          <t>['http://dbpedia.org/resource/Abatte_Barihun', 'http://dbpedia.org/resource/Alan_Silva', 'http://dbpedia.org/resource/Artie_Fields', 'http://dbpedia.org/resource/Charlie_Spivak', 'http://dbpedia.org/resource/Danny_Davis_(country_musician)', 'http://dbpedia.org/resource/Doc_Cheatham', 'http://dbpedia.org/resource/Ernest_%22Doc%22_Paulin', 'http://dbpedia.org/resource/Jack_Jackson_(radio_personality)', 'http://dbpedia.org/resource/Jacobo_Rubalcaba', 'http://dbpedia.org/resource/Jimmy_Dorsey', 'http://dbpedia.org/resource/Kaj_Backlund', 'http://dbpedia.org/resource/Lloyd_Hunter', 'http://dbpedia.org/resource/Marlon_Jordan', 'http://dbpedia.org/resource/Mick_Mulligan', 'http://dbpedia.org/resource/Ollie_Mitchell', 'http://dbpedia.org/resource/Ovie_Alston', 'http://dbpedia.org/resource/Pacho_Galan', 'http://dbpedia.org/resource/Red_Perkins', 'http://dbpedia.org/resource/Richard_Maltby_Sr.', 'http://dbpedia.org/resource/Steamboat_Willie_(musician)']</t>
         </is>
       </c>
       <c r="D36" t="b">
@@ -1158,17 +1158,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>How many people live in the capital of Australia?</t>
+          <t>What is the capital of Canada?</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>['453558']</t>
+          <t>['http://dbpedia.org/resource/Ottawa']</t>
         </is>
       </c>
       <c r="D37" t="b">
@@ -1178,17 +1178,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>how big is the total area of North Rhine- Westphalia?</t>
+          <t>Which soccer players were born on Malta?</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>['34084130000']</t>
+          <t>['http://dbpedia.org/resource/Aaron_Xuereb', 'http://dbpedia.org/resource/Adrian_Ciantar', 'http://dbpedia.org/resource/Adrian_Mifsud', 'http://dbpedia.org/resource/Adrian_Pulis', 'http://dbpedia.org/resource/Alishia_Sultana', 'http://dbpedia.org/resource/Andrei_Agius', 'http://dbpedia.org/resource/Andrew_Cohen_(footballer)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1977)', 'http://dbpedia.org/resource/Antoine_Zahra_(footballer,_born_1981)', 'http://dbpedia.org/resource/Brenda_Borg', 'http://dbpedia.org/resource/Brian_Said', 'http://dbpedia.org/resource/Brian_Strutt', 'http://dbpedia.org/resource/Callum_Talbot', 'http://dbpedia.org/resource/Carlo_Mamo', 'http://dbpedia.org/resource/Charles_Azzopardi', 'http://dbpedia.org/resource/Charles_Micallef', 'http://dbpedia.org/resource/Charles_Muscat', 'http://dbpedia.org/resource/Charlie_Williams_(footballer,_born_1944)', 'http://dbpedia.org/resource/Claude_Mattocks', 'http://dbpedia.org/resource/Cleavon_Frendo', 'http://dbpedia.org/resource/Cornelius_Hogan', 'http://dbpedia.org/resource/Daniel_Theuma', 'http://dbpedia.org/resource/Darren_Debono', 'http://dbpedia.org/resource/David_Camilleri', 'http://dbpedia.org/resource/David_Cluett', 'http://dbpedia.org/resource/Denis_Cauchi', 'http://dbpedia.org/resource/Dennis_Mizzi', 'http://dbpedia.org/resource/Dexter_Xuereb', 'http://dbpedia.org/resource/Dorianne_Theuma', 'http://dbpedia.org/resource/Edmond_Agius', 'http://dbpedia.org/resource/Edward_Azzopardi', 'http://dbpedia.org/resource/Emanuel_Fabri', 'http://dbpedia.org/resource/Emma_Xuerreb', 'http://dbpedia.org/resource/Gareth_Sciberras', 'http://dbpedia.org/resource/George_Mallia', 'http://dbpedia.org/resource/Hubert_Suda', 'http://dbpedia.org/resource/Ian_Azzopardi', 'http://dbpedia.org/resource/Ian_Ciantar', 'http://dbpedia.org/resource/Ivan_Zammit', 'http://dbpedia.org/resource/Jade_Flask', 'http://dbpedia.org/resource/Jamie_Zerafa', 'http://dbpedia.org/resource/Jean_Paul_Farrugia', 'http://dbpedia.org/resource/Jeffrey_Chetcuti', 'http://dbpedia.org/resource/Jesmond_Delia', 'http://dbpedia.org/resource/Joe_Brincat', 'http://dbpedia.org/resource/Johann_Bezzina', 'http://dbpedia.org/resource/John_Bonello', 'http://dbpedia.org/resource/John_McNeill_(footballer)', 'http://dbpedia.org/resource/Jonathan_Caruana', 'http://dbpedia.org/resource/Jonathan_Holland_(footballer)', 'http://dbpedia.org/resource/Jonathan_Magri_Overend', 'http://dbpedia.org/resource/Josef_Mifsud', 'http://dbpedia.org/resource/Joseph_Farrugia', 'http://dbpedia.org/resource/Juan_Carlos_Corbalan', 'http://dbpedia.org/resource/Justin_Haber', 'http://dbpedia.org/resource/Kenneth_Scicluna', 'http://dbpedia.org/resource/Kevin_Sammut', 'http://dbpedia.org/resource/Kristian_Laferla', 'http://dbpedia.org/resource/Lino_Galea', 'http://dbpedia.org/resource/Lolly_Vella', 'http://dbpedia.org/resource/Malcolm_Licari', 'http://dbpedia.org/resource/Maria_Farrugia', 'http://dbpedia.org/resource/Mario_Farrugia', 'http://dbpedia.org/resource/Martina_Borg', 'http://dbpedia.org/resource/Massimo_Grima', 'http://dbpedia.org/resource/Matthew_Guillaumier', 'http://dbpedia.org/resource/Michael_Cutajar', 'http://dbpedia.org/resource/Michael_Galea', 'http://dbpedia.org/resource/Michael_Johnson_(footballer,_born_1994)', 'http://dbpedia.org/resource/Nicole_Buttigieg', 'http://dbpedia.org/resource/Nicole_Sciberras', 'http://dbpedia.org/resource/Noel_Turner_(footballer)', 'http://dbpedia.org/resource/Paul_Fenech_(footballer)', 'http://dbpedia.org/resource/Pierre_Aquilina', 'http://dbpedia.org/resource/Ray_Farrugia', 'http://dbpedia.org/resource/Raymond_Xuereb', "http://dbpedia.org/resource/Rebecca_D'Agostino", 'http://dbpedia.org/resource/Reginald_Cini', 'http://dbpedia.org/resource/Roderick_Briffa', 'http://dbpedia.org/resource/Ronnie_Cocks', 'http://dbpedia.org/resource/Saviour_Darmanin', 'http://dbpedia.org/resource/Sean_Sullivan_(footballer)', 'http://dbpedia.org/resource/Simon_Tortell', 'http://dbpedia.org/resource/Stefan_Giglio', 'http://dbpedia.org/resource/Stefania_Farrugia', 'http://dbpedia.org/resource/Stephen_Wellman', 'http://dbpedia.org/resource/Steve_Bezzina', 'http://dbpedia.org/resource/Steve_Pisani', 'http://dbpedia.org/resource/Terence_Scerri', 'http://dbpedia.org/resource/Terence_Vella', 'http://dbpedia.org/resource/Vincent_Borg_Bonaci', 'http://dbpedia.org/resource/William_Camenzuli']</t>
         </is>
       </c>
       <c r="D38" t="b">
@@ -1198,17 +1198,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>How many employees does IBM have?</t>
+          <t>What is the capital of Cameroon?</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>['282100']</t>
+          <t>['http://dbpedia.org/resource/Yaoundé']</t>
         </is>
       </c>
       <c r="D39" t="b">
@@ -1218,17 +1218,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Give me all Danish movies.</t>
+          <t>Who created Family Guy?</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>['http://dbpedia.org/resource/A_Summer_Tale', 'http://dbpedia.org/resource/Afghan_Muscles', 'http://dbpedia.org/resource/After_the_Wedding_(2006_film)', 'http://dbpedia.org/resource/Ai_Weiwei:_The_Fake_Case', 'http://dbpedia.org/resource/Another_Round_(film)', 'http://dbpedia.org/resource/Antichrist_(film)__Antichrist__1', 'http://dbpedia.org/resource/Arn:_The_Knight_Templar', 'http://dbpedia.org/resource/Bag_Københavns_kulisser', 'http://dbpedia.org/resource/Barefoot_(2017_film)', "http://dbpedia.org/resource/Benny's_Bathtub", 'http://dbpedia.org/resource/Bionicle:_Mask_of_Light', 'http://dbpedia.org/resource/Bornholms_stemme', 'http://dbpedia.org/resource/Breaking_the_Waves', 'http://dbpedia.org/resource/Busters_verden', 'http://dbpedia.org/resource/Constance_(film)', 'http://dbpedia.org/resource/Crying_for_Love', 'http://dbpedia.org/resource/De_besejrede_Pebersvende', 'http://dbpedia.org/resource/De_Udstillede', 'http://dbpedia.org/resource/Den_farlige_alder', 'http://dbpedia.org/resource/Den_kulørte_Slavehandler', 'http://dbpedia.org/resource/Der_var_engang_en_vicevært', 'http://dbpedia.org/resource/Ditte,_Child_of_Man', 'http://dbpedia.org/resource/Domino_(2019_film)', 'http://dbpedia.org/resource/Don_Olsen_kommer_til_byen', 'http://dbpedia.org/resource/Driving_with_Greenland_Dogs', 'http://dbpedia.org/resource/Echo_(2007_film)', 'http://dbpedia.org/resource/Eddy_Merckx_in_the_Vicinity_of_a_Cup_of_Coffee', 'http://dbpedia.org/resource/Eksperimentet', 'http://dbpedia.org/resource/En_slem_Dreng', 'http://dbpedia.org/resource/Eye_of_the_Eagle_(1997_film)', 'http://dbpedia.org/resource/Familien_Pille_som_Spejdere', 'http://dbpedia.org/resource/Family_Matters_(film)', 'http://dbpedia.org/resource/Farlig_Ungdom', 'http://dbpedia.org/resource/Fidibus', 'http://dbpedia.org/resource/Five_Get_into_Trouble_(film)', 'http://dbpedia.org/resource/Flee_(film)', 'http://dbpedia.org/resource/Flickering_Lights', 'http://dbpedia.org/resource/Frække_Frida_og_de_frygtløse_spioner', 'http://dbpedia.org/resource/Frk._Møllers_jubilæum', 'http://dbpedia.org/resource/Frode_og_alle_de_andre_rødder__Frode_og_alle_de_andre_rødder__1', "http://dbpedia.org/resource/Gasolin'_(film)", 'http://dbpedia.org/resource/Ghost_Train_International', 'http://dbpedia.org/resource/Giv_Gud_en_chance_om_søndagen', "http://dbpedia.org/resource/Goutte_d'Or_(film)", "http://dbpedia.org/resource/Help!_I'm_a_Fish", 'http://dbpedia.org/resource/Herberg_for_Hjemløse', 'http://dbpedia.org/resource/His_New_Grey_Trousers', 'http://dbpedia.org/resource/Højt_paa_en_kvist', 'http://dbpedia.org/resource/Holes_in_the_Soup', 'http://dbpedia.org/resource/Human_Remains_(film)', 'http://dbpedia.org/resource/Ikíngut', 'http://dbpedia.org/resource/Jag_är_din_krigare', 'http://dbpedia.org/resource/Jeg_har_elsket_og_levet', 'http://dbpedia.org/resource/Journey_to_Saturn', 'http://dbpedia.org/resource/Kærlighed_og_Mobilisering', "http://dbpedia.org/resource/Karla's_World", 'http://dbpedia.org/resource/Khartoum_Offside', "http://dbpedia.org/resource/Kira's_Reason:_A_Love_Story", 'http://dbpedia.org/resource/Klown_Forever', 'http://dbpedia.org/resource/København,_Kalundborg_og_-_%3F', 'http://dbpedia.org/resource/Koko-di_Koko-da', 'http://dbpedia.org/resource/Kun_en_Tigger', 'http://dbpedia.org/resource/Little_Brother,_Big_Trouble:_A_Christmas_Adventure', 'http://dbpedia.org/resource/Løvejagten', 'http://dbpedia.org/resource/Manslaughter_(2005_film)', 'http://dbpedia.org/resource/Margrete:_Queen_of_the_North', 'http://dbpedia.org/resource/Matador_(Danish_TV_series)', 'http://dbpedia.org/resource/Melody_of_Murder', 'http://dbpedia.org/resource/Minor_Mishaps', 'http://dbpedia.org/resource/Monas_verden', 'http://dbpedia.org/resource/Murderous_Trance', 'http://dbpedia.org/resource/Murk_(film)', 'http://dbpedia.org/resource/Nation_Estate', 'http://dbpedia.org/resource/Next_Stop_Paradise_(1980_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1934_film)', 'http://dbpedia.org/resource/Nøddebo_Præstegård_(1974_film)', 'http://dbpedia.org/resource/Nordhavets_mænd', 'http://dbpedia.org/resource/Nynne', "http://dbpedia.org/resource/O'_Horten", 'http://dbpedia.org/resource/Pelle_the_Conqueror', 'http://dbpedia.org/resource/Pervert_Park', 'http://dbpedia.org/resource/Princess_(2006_film)', 'http://dbpedia.org/resource/Pusher_(film_series)', 'http://dbpedia.org/resource/Regel_nr._1', 'http://dbpedia.org/resource/Reptilicus', 'http://dbpedia.org/resource/Return_to_Sender_(2004_film)', 'http://dbpedia.org/resource/Samson_&amp;_Sally', 'http://dbpedia.org/resource/Sekstet', 'http://dbpedia.org/resource/Smiling_in_a_War_Zone', 'http://dbpedia.org/resource/Something_Better_to_Come', 'http://dbpedia.org/resource/Songs_from_the_Second_Floor', 'http://dbpedia.org/resource/Sons_of_the_Soil', 'http://dbpedia.org/resource/Speed_Sisters', 'http://dbpedia.org/resource/Speed_Walking', 'http://dbpedia.org/resource/Stealing_Rembrandt', 'http://dbpedia.org/resource/Stjerneskud', 'http://dbpedia.org/resource/Stolen_Spring_(film)', 'http://dbpedia.org/resource/Storm_(2009_film)', 'http://dbpedia.org/resource/Strømer', 'http://dbpedia.org/resource/Sun_over_Denmark', 'http://dbpedia.org/resource/Sunes_familie', 'http://dbpedia.org/resource/Supervoksen', 'http://dbpedia.org/resource/Susanne_(1950_film)', 'http://dbpedia.org/resource/Teddy_Bear_(2012_film)', 'http://dbpedia.org/resource/Terribly_Happy', "http://dbpedia.org/resource/That's_Me,_Too", 'http://dbpedia.org/resource/The_Crimson_Circle_(1960_film)', 'http://dbpedia.org/resource/The_Forbidden_Team', 'http://dbpedia.org/resource/The_House_of_the_Spirits_(film)', 'http://dbpedia.org/resource/The_Inheritance_(2003_film)', "http://dbpedia.org/resource/The_King's_Choice", 'http://dbpedia.org/resource/The_Lego_Ninjago_Movie', 'http://dbpedia.org/resource/The_Mahabharata_(1989_film)', 'http://dbpedia.org/resource/The_Monastery:_Mr._Vig_and_the_Nun', 'http://dbpedia.org/resource/The_Perfect_Human', 'http://dbpedia.org/resource/The_Red_Meadows', 'http://dbpedia.org/resource/The_Thralls', 'http://dbpedia.org/resource/The_Viking_Watch_of_the_Danish_Seaman', 'http://dbpedia.org/resource/The_White_Slave_Trade', 'http://dbpedia.org/resource/Those_Blasted_Kids', 'http://dbpedia.org/resource/Torremolinos_73', 'http://dbpedia.org/resource/Valhalla_(1986_film)', 'http://dbpedia.org/resource/Vildledt_Elskov', "http://dbpedia.org/resource/We_Meet_at_Tove's", 'http://dbpedia.org/resource/Webmaster_(film)', 'http://dbpedia.org/resource/What_No_One_Knows', 'http://dbpedia.org/resource/You_Are_Not_Alone_(film)']</t>
+          <t>['http://dbpedia.org/resource/Seth_MacFarlane']</t>
         </is>
       </c>
       <c r="D40" t="b">
@@ -1238,20 +1238,80 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>How much is the population of mexico city ?</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>['9209944']</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>['9209944']</t>
+        </is>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>How many people live in the capital of Australia?</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>['453558']</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>['453558']</t>
+        </is>
+      </c>
+      <c r="D42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>How many employees does IBM have?</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>['282100']</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>['282100']</t>
+        </is>
+      </c>
+      <c r="D43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
           <t>Who created Goofy?</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>['http://dbpedia.org/resource/Bob_Ogle', 'http://dbpedia.org/resource/Paul_Murry']</t>
         </is>
       </c>
-      <c r="D41" t="b">
+      <c r="D44" t="b">
         <v>1</v>
       </c>
     </row>
